--- a/biology/Biochimie/Prostaglandine-E_synthase/Prostaglandine-E_synthase.xlsx
+++ b/biology/Biochimie/Prostaglandine-E_synthase/Prostaglandine-E_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostaglandine-E synthase, ou PGE synthase, est une isomérase qui catalyse la réaction :
 Prostaglandine H2  
         ⇌
     {\displaystyle \rightleftharpoons }
   prostaglandine E2.
-Cette enzyme intervient dans le métabolisme des prostaglandines en assurant la conversion de la prostaglandine H2 en prostaglandine E2[2],[3], étape finale de la biosynthèse de la prostaglandine E2 à partir de l'acide arachidonique.
+Cette enzyme intervient dans le métabolisme des prostaglandines en assurant la conversion de la prostaglandine H2 en prostaglandine E2 étape finale de la biosynthèse de la prostaglandine E2 à partir de l'acide arachidonique.
 Il existe trois isozymes connues pour la PGE synthase : les PGE synthases 1 et 2 sont microsomiales tandis que la PGE synthase 3 est cytosolique.
 </t>
         </is>
